--- a/NaiveBayes.xlsx
+++ b/NaiveBayes.xlsx
@@ -73,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,13 +89,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Fira Code"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <sz val="14"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -128,12 +122,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -437,7 +428,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -445,6 +436,7 @@
     <col min="1" max="1" width="12" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -464,28 +456,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19.5">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:5" ht="18.75">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19.5">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:5" ht="18.75">
+      <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -494,66 +486,66 @@
       <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19.5">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:5" ht="18.75">
+      <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19.5">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:5" ht="18.75">
+      <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="19.5">
-      <c r="A6" s="3" t="s">
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18.75">
+      <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19.5">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:5" ht="18.75">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="2" t="s">
@@ -562,19 +554,19 @@
       <c r="D7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19.5">
-      <c r="A8" s="3" t="s">
+    <row r="8" spans="1:5" ht="18.75">
+      <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>14</v>
@@ -583,66 +575,66 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19.5">
-      <c r="A9" s="3" t="s">
+    <row r="9" spans="1:5" ht="18.75">
+      <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19.5">
-      <c r="A10" s="3" t="s">
+    <row r="10" spans="1:5" ht="18.75">
+      <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="D10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19.5">
-      <c r="A11" s="3" t="s">
+    <row r="11" spans="1:5" ht="18.75">
+      <c r="A11" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="19.5">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:5" ht="18.75">
+      <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>14</v>
@@ -651,15 +643,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19.5">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:5" ht="18.75">
+      <c r="A13" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>14</v>
@@ -668,28 +660,28 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="19.5">
-      <c r="A14" s="3" t="s">
+    <row r="14" spans="1:5" ht="18.75">
+      <c r="A14" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>10</v>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="19.5">
-      <c r="A15" s="3" t="s">
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="18.75">
+      <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="2" t="s">
@@ -698,7 +690,7 @@
       <c r="D15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>15</v>
       </c>
     </row>
